--- a/DP-Andres/archivos/parametros_empresa_dp.xlsx
+++ b/DP-Andres/archivos/parametros_empresa_dp.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="101">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">06:00</t>
   </si>
   <si>
-    <t xml:space="preserve">07:00:</t>
+    <t xml:space="preserve">07:00</t>
   </si>
   <si>
     <t xml:space="preserve">08:00</t>
@@ -94,199 +94,208 @@
     <t xml:space="preserve">IDCALENDAR</t>
   </si>
   <si>
+    <t xml:space="preserve">Desde el Aeropuerto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47dce9ed9ef8d647cec99b32edff72c2db7b21ca5a0df32e5b56bd18bac1c416@group.calendar.google.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacia el  Aeropuerto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f61a34f12444bdfc2e26ac1381b9499fb178c0d1f40a3dc1dfa34b95eec47146@group.calendar.google.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCARGADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMAIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELEFONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODIGOQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta6@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta8@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta11@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta12@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta13@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta14@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta15@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta16@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta17@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta18@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta19@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta20@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occidente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta21@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta22@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta23@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta24@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta25@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">concepto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
     <t xml:space="preserve">Desde Aeropuerto</t>
   </si>
   <si>
-    <t xml:space="preserve">617d2384ffee7bf87962b771b740e372fc7d8b1e1bd5db386d3c38b0dbf0bce5@group.calendar.google.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacia el  Aeropuerto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28907ee879da61f67b82a7af31f161bddc00760d22f951a6691994451038b7d7@group.calendar.google.com </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENCARGADOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELEFONO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEDULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODIGOQR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta3@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta5@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta6@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta8@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta9@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta10@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta11@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta12@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta13@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta14@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta15@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta16@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta17@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta18@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta19@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta20@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta21@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta22@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta23@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encaegado24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta24@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta25@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">concepto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corte Hombre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corte Mujer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arreglo Barba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afeitar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otro</t>
+    <t xml:space="preserve">Hacia Aeropuerto</t>
   </si>
   <si>
     <t xml:space="preserve">EMPRESA</t>
@@ -313,28 +322,13 @@
     <t xml:space="preserve">CIUDAD</t>
   </si>
   <si>
-    <t xml:space="preserve">Barberia Stylos</t>
+    <t xml:space="preserve">Distrito Privado</t>
   </si>
   <si>
     <t xml:space="preserve">Carrera 11 No. 9 – 47</t>
   </si>
   <si>
-    <t xml:space="preserve">Girardot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occidente</t>
+    <t xml:space="preserve">Bogota</t>
   </si>
 </sst>
 </file>
@@ -347,7 +341,7 @@
     <numFmt numFmtId="166" formatCode="#,##0"/>
     <numFmt numFmtId="167" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -390,12 +384,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -453,7 +441,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -478,7 +466,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -488,10 +476,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -578,7 +562,7 @@
   <dimension ref="A1:A19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -697,7 +681,7 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -722,22 +706,22 @@
       <c r="A2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6" t="n">
-        <v>35000</v>
+      <c r="B2" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>35000</v>
+        <v>25</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,10 +755,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -785,27 +769,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>3200000000</v>
@@ -813,13 +800,16 @@
       <c r="D2" s="3" t="n">
         <v>1</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="n">
         <v>3205511091</v>
@@ -827,13 +817,16 @@
       <c r="D3" s="3" t="n">
         <v>2</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>3200000002</v>
@@ -841,13 +834,16 @@
       <c r="D4" s="3" t="n">
         <v>3</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>3200000003</v>
@@ -855,13 +851,16 @@
       <c r="D5" s="3" t="n">
         <v>4</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>3200000004</v>
@@ -869,13 +868,16 @@
       <c r="D6" s="3" t="n">
         <v>5</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3" t="n">
         <v>0</v>
@@ -883,157 +885,217 @@
       <c r="D7" s="3" t="n">
         <v>6</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1044,19 +1106,26 @@
     <hyperlink ref="B4" r:id="rId3" display="dpdelta3@gmail.com"/>
     <hyperlink ref="B5" r:id="rId4" display="dpdelta4@gmail.com"/>
     <hyperlink ref="B6" r:id="rId5" display="dpdelta5@gmail.com"/>
-    <hyperlink ref="B8" r:id="rId6" display="dpdelta7@gmail.com"/>
-    <hyperlink ref="B9" r:id="rId7" display="dpdelta8@gmail.com"/>
-    <hyperlink ref="B10" r:id="rId8" display="dpdelta9@gmail.com"/>
-    <hyperlink ref="B12" r:id="rId9" display="dpdelta11@gmail.com"/>
-    <hyperlink ref="B13" r:id="rId10" display="dpdelta12@gmail.com"/>
-    <hyperlink ref="B14" r:id="rId11" display="dpdelta13@gmail.com"/>
-    <hyperlink ref="B15" r:id="rId12" display="dpdelta14@gmail.com"/>
-    <hyperlink ref="B16" r:id="rId13" display="dpdelta15@gmail.com"/>
-    <hyperlink ref="B17" r:id="rId14" display="dpdelta16@gmail.com"/>
-    <hyperlink ref="B18" r:id="rId15" display="dpdelta17@gmail.com"/>
-    <hyperlink ref="B19" r:id="rId16" display="dpdelta18@gmail.com"/>
-    <hyperlink ref="B20" r:id="rId17" display="dpdelta19@gmail.com"/>
-    <hyperlink ref="B21" r:id="rId18" display="dpdelta20@gmail.com"/>
+    <hyperlink ref="B7" r:id="rId6" display="dpdelta6@gmail.com"/>
+    <hyperlink ref="B8" r:id="rId7" display="dpdelta7@gmail.com"/>
+    <hyperlink ref="B9" r:id="rId8" display="dpdelta8@gmail.com"/>
+    <hyperlink ref="B10" r:id="rId9" display="dpdelta9@gmail.com"/>
+    <hyperlink ref="B11" r:id="rId10" display="dpdelta10@gmail.com"/>
+    <hyperlink ref="B12" r:id="rId11" display="dpdelta11@gmail.com"/>
+    <hyperlink ref="B13" r:id="rId12" display="dpdelta12@gmail.com"/>
+    <hyperlink ref="B14" r:id="rId13" display="dpdelta13@gmail.com"/>
+    <hyperlink ref="B15" r:id="rId14" display="dpdelta14@gmail.com"/>
+    <hyperlink ref="B16" r:id="rId15" display="dpdelta15@gmail.com"/>
+    <hyperlink ref="B17" r:id="rId16" display="dpdelta16@gmail.com"/>
+    <hyperlink ref="B18" r:id="rId17" display="dpdelta17@gmail.com"/>
+    <hyperlink ref="B19" r:id="rId18" display="dpdelta18@gmail.com"/>
+    <hyperlink ref="B20" r:id="rId19" display="dpdelta19@gmail.com"/>
+    <hyperlink ref="B21" r:id="rId20" display="dpdelta20@gmail.com"/>
+    <hyperlink ref="B22" r:id="rId21" display="dpdelta21@gmail.com"/>
+    <hyperlink ref="B23" r:id="rId22" display="dpdelta22@gmail.com"/>
+    <hyperlink ref="B24" r:id="rId23" display="dpdelta23@gmail.com"/>
+    <hyperlink ref="B25" r:id="rId24" display="dpdelta24@gmail.com"/>
+    <hyperlink ref="B26" r:id="rId25" display="dpdelta25@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1073,61 +1142,40 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="13.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="10" t="n">
-        <v>15000</v>
+        <v>88</v>
+      </c>
+      <c r="B2" s="9" t="n">
+        <v>35000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="10" t="n">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="10" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="10" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>35000</v>
       </c>
     </row>
   </sheetData>
@@ -1159,18 +1207,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1243,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1207,30 +1255,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B2" s="3" t="n">
         <v>987654321</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1251,35 +1299,35 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>98</v>
+      <c r="A1" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>99</v>
+      <c r="A2" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>100</v>
+      <c r="A3" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>101</v>
+      <c r="A4" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>102</v>
+      <c r="A5" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
